--- a/Graphs_Burst.xlsx
+++ b/Graphs_Burst.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="73" documentId="8_{F8B9BAF7-55B5-7041-9482-0D3DD54CBEF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E6D829DA-6CB2-524A-A6C7-D307FF1485E5}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{11D525EA-280E-724D-A493-9E7DDFB64DE3}"/>
+    <workbookView xWindow="3500" yWindow="5680" windowWidth="28800" windowHeight="16600" xr2:uid="{11D525EA-280E-724D-A493-9E7DDFB64DE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8067,7 +8067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A960E16-4C26-9A4C-B13C-C6AE867BD05F}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>

--- a/Graphs_Burst.xlsx
+++ b/Graphs_Burst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucsfonline-my.sharepoint.com/personal/vinith_johnson_ucsf_edu/Documents/RCS04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{F8B9BAF7-55B5-7041-9482-0D3DD54CBEF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E6D829DA-6CB2-524A-A6C7-D307FF1485E5}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="8_{F8B9BAF7-55B5-7041-9482-0D3DD54CBEF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2BDEEF4-D9E7-2543-94BE-CA154C965286}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="5680" windowWidth="28800" windowHeight="16600" xr2:uid="{11D525EA-280E-724D-A493-9E7DDFB64DE3}"/>
+    <workbookView xWindow="740" yWindow="580" windowWidth="36780" windowHeight="20020" xr2:uid="{11D525EA-280E-724D-A493-9E7DDFB64DE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
   <si>
     <t>Brate Left</t>
   </si>
@@ -68,12 +68,21 @@
   <si>
     <t>Bht Right</t>
   </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>8-9</t>
+  </si>
+  <si>
+    <t>10-11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,6 +93,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -116,10 +133,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,67 +172,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Brate</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (LEFT)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -223,7 +184,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>Sheet1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -244,35 +205,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v> STN</c:v>
+                  <c:v>0-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>C1</c:v>
+                  <c:v>8-9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>C2</c:v>
+                  <c:v>10-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$D$3</c:f>
+              <c:f>Sheet1!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.28857154581641598</c:v>
+                  <c:v>0.42299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0384422832286899</c:v>
+                  <c:v>0.89629999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0757047888711</c:v>
+                  <c:v>1.054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -288,7 +249,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>Sheet1!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -309,24 +270,24 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v> STN</c:v>
+                  <c:v>0-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>C1</c:v>
+                  <c:v>8-9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>C2</c:v>
+                  <c:v>10-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$D$4</c:f>
+              <c:f>Sheet1!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -371,7 +332,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2</c15:sqref>
+                          <c15:sqref>Sheet1!$A$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -395,20 +356,20 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$D$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$D$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v> STN</c:v>
+                        <c:v>0-2</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>C1</c:v>
+                        <c:v>8-9</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>C2</c:v>
+                        <c:v>10-11</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -418,7 +379,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$D$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$3:$D$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -467,7 +428,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -513,7 +474,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -541,37 +502,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -624,62 +554,7 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Brate (RIGHT)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -691,7 +566,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$18</c:f>
+              <c:f>Sheet1!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -709,24 +584,24 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$17:$D$17</c:f>
+              <c:f>Sheet1!$B$18:$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v> STN</c:v>
+                  <c:v>0-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>C1</c:v>
+                  <c:v>8-9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>C2</c:v>
+                  <c:v>10-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$18:$D$18</c:f>
+              <c:f>Sheet1!$B$19:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -744,7 +619,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$19</c:f>
+              <c:f>Sheet1!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -765,35 +640,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$17:$D$17</c:f>
+              <c:f>Sheet1!$B$18:$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v> STN</c:v>
+                  <c:v>0-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>C1</c:v>
+                  <c:v>8-9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>C2</c:v>
+                  <c:v>10-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$19:$D$19</c:f>
+              <c:f>Sheet1!$B$20:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.48656880733945002</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76124159021407201</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.745516819571866</c:v>
+                  <c:v>0.45190000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -809,7 +684,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$20</c:f>
+              <c:f>Sheet1!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -830,35 +705,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$17:$D$17</c:f>
+              <c:f>Sheet1!$B$18:$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v> STN</c:v>
+                  <c:v>0-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>C1</c:v>
+                  <c:v>8-9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>C2</c:v>
+                  <c:v>10-11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$20:$D$20</c:f>
+              <c:f>Sheet1!$B$21:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.64976747915330302</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1022610647851201</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.13163887107119</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -912,7 +787,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -958,7 +833,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -986,41 +861,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1145,7 +985,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
+              <c:f>Sheet1!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1163,7 +1003,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$6:$D$6</c:f>
+              <c:f>Sheet1!$B$7:$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1180,7 +1020,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$D$7</c:f>
+              <c:f>Sheet1!$B$8:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1198,7 +1038,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
+              <c:f>Sheet1!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1219,7 +1059,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$6:$D$6</c:f>
+              <c:f>Sheet1!$B$7:$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1236,7 +1076,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$D$8</c:f>
+              <c:f>Sheet1!$B$9:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1263,7 +1103,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$9</c:f>
+              <c:f>Sheet1!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1284,7 +1124,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$6:$D$6</c:f>
+              <c:f>Sheet1!$B$7:$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1301,7 +1141,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$D$9</c:f>
+              <c:f>Sheet1!$B$10:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1594,7 +1434,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$23</c:f>
+              <c:f>Sheet1!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1612,7 +1452,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$22:$D$22</c:f>
+              <c:f>Sheet1!$B$23:$D$23</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1629,7 +1469,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$D$23</c:f>
+              <c:f>Sheet1!$B$24:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1647,7 +1487,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$24</c:f>
+              <c:f>Sheet1!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1668,7 +1508,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$22:$D$22</c:f>
+              <c:f>Sheet1!$B$23:$D$23</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1685,7 +1525,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$D$24</c:f>
+              <c:f>Sheet1!$B$25:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1712,7 +1552,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$25</c:f>
+              <c:f>Sheet1!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1733,7 +1573,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$22:$D$22</c:f>
+              <c:f>Sheet1!$B$23:$D$23</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1750,7 +1590,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$D$25</c:f>
+              <c:f>Sheet1!$B$26:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2043,7 +1883,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$12</c:f>
+              <c:f>Sheet1!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2061,7 +1901,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$11:$D$11</c:f>
+              <c:f>Sheet1!$B$12:$D$12</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2078,7 +1918,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$D$12</c:f>
+              <c:f>Sheet1!$B$13:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2096,7 +1936,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$13</c:f>
+              <c:f>Sheet1!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2117,7 +1957,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$11:$D$11</c:f>
+              <c:f>Sheet1!$B$12:$D$12</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2134,7 +1974,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$D$13</c:f>
+              <c:f>Sheet1!$B$14:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2161,7 +2001,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$14</c:f>
+              <c:f>Sheet1!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2182,7 +2022,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$11:$D$11</c:f>
+              <c:f>Sheet1!$B$12:$D$12</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2199,7 +2039,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$D$14</c:f>
+              <c:f>Sheet1!$B$15:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2492,7 +2332,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$28</c:f>
+              <c:f>Sheet1!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2510,7 +2350,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$27:$D$27</c:f>
+              <c:f>Sheet1!$B$28:$D$28</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2527,7 +2367,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$D$28</c:f>
+              <c:f>Sheet1!$B$29:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2545,7 +2385,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$29</c:f>
+              <c:f>Sheet1!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2566,7 +2406,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$27:$D$27</c:f>
+              <c:f>Sheet1!$B$28:$D$28</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2583,7 +2423,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$29:$D$29</c:f>
+              <c:f>Sheet1!$B$30:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2610,7 +2450,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$30</c:f>
+              <c:f>Sheet1!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2631,7 +2471,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$27:$D$27</c:f>
+              <c:f>Sheet1!$B$28:$D$28</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2648,7 +2488,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$30:$D$30</c:f>
+              <c:f>Sheet1!$B$31:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6123,13 +5963,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6159,13 +5999,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6195,13 +6035,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6231,13 +6071,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6267,13 +6107,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>303388</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>46568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>712611</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>23990</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6303,13 +6143,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>74790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>726723</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>52212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8065,264 +7905,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A960E16-4C26-9A4C-B13C-C6AE867BD05F}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>44179</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0.28857154581641598</v>
-      </c>
-      <c r="C3">
-        <v>1.0384422832286899</v>
-      </c>
-      <c r="D3">
-        <v>1.0757047888711</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.89629999999999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="2">
         <v>0.76425290041267602</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="2">
         <v>1.0199797555088399</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="2">
         <v>1.15636533520205</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>84.682601810882502</v>
-      </c>
-      <c r="C8">
-        <v>67.531739002032097</v>
-      </c>
-      <c r="D8">
-        <v>71.285054185107796</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>84.682601810882502</v>
+      </c>
+      <c r="C9">
+        <v>67.531739002032097</v>
+      </c>
+      <c r="D9">
+        <v>71.285054185107796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>76.701771603746096</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>77.703045984731602</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>74.638168559684303</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>1.8168336179684701E-2</v>
-      </c>
-      <c r="C13">
-        <v>1.54865953405904E-2</v>
-      </c>
-      <c r="D13">
-        <v>2.3630327874159598E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1.8168336179684701E-2</v>
+      </c>
+      <c r="C14">
+        <v>1.54865953405904E-2</v>
+      </c>
+      <c r="D14">
+        <v>2.3630327874159598E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>1.5882138532166901E-2</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>1.7401177931625898E-2</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>2.5971838962101802E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>44179</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>0.48656880733945002</v>
-      </c>
-      <c r="C19">
-        <v>0.76124159021407201</v>
-      </c>
-      <c r="D19">
-        <v>0.745516819571866</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.45190000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B20">
-        <v>0.64976747915330302</v>
-      </c>
-      <c r="C20">
-        <v>1.1022610647851201</v>
-      </c>
-      <c r="D20">
-        <v>1.13163887107119</v>
+      <c r="B21" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <v>75.190811760074595</v>
-      </c>
-      <c r="C24">
-        <v>54.539738100839202</v>
-      </c>
-      <c r="D24">
-        <v>56.933680310515101</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>75.190811760074595</v>
+      </c>
+      <c r="C25">
+        <v>54.539738100839202</v>
+      </c>
+      <c r="D25">
+        <v>56.933680310515101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>79.318992034835404</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>71.110425340472602</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>69.475669648542194</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <v>1.97083069588199E-2</v>
-      </c>
-      <c r="C29">
-        <v>2.15971555987419E-2</v>
-      </c>
-      <c r="D29">
-        <v>1.8107562945030901E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>1.97083069588199E-2</v>
+      </c>
+      <c r="C30">
+        <v>2.15971555987419E-2</v>
+      </c>
+      <c r="D30">
+        <v>1.8107562945030901E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>1.8043515942452099E-2</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>2.3450764519396601E-2</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>1.95294543384259E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.89629999999999999</v>
+      </c>
+      <c r="D38">
+        <v>1.054</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>0.28857154581641598</v>
+      </c>
+      <c r="I38">
+        <v>1.0384422832286899</v>
+      </c>
+      <c r="J38">
+        <v>1.0757047888711</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>0.76425290041267602</v>
+      </c>
+      <c r="C39">
+        <v>1.0199797555088399</v>
+      </c>
+      <c r="D39">
+        <v>1.15636533520205</v>
+      </c>
+      <c r="G39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>0.76425290041267602</v>
+      </c>
+      <c r="I39">
+        <v>1.0199797555088399</v>
+      </c>
+      <c r="J39">
+        <v>1.15636533520205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>0.51</v>
+      </c>
+      <c r="C43">
+        <v>1.35</v>
+      </c>
+      <c r="D43">
+        <v>0.45190000000000002</v>
+      </c>
+      <c r="G43" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>0.51</v>
+      </c>
+      <c r="I43">
+        <v>1.35</v>
+      </c>
+      <c r="J43">
+        <v>0.45190000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>0.72</v>
+      </c>
+      <c r="C44">
+        <v>1.45</v>
+      </c>
+      <c r="D44">
+        <v>0.9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>0.72</v>
+      </c>
+      <c r="I44">
+        <v>1.45</v>
+      </c>
+      <c r="J44">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
